--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C732E-C8A0-42D4-99E3-4E142624C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D239D7-F44F-40FF-A030-E736D6C8B788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29A12958-0599-4FC4-9756-239A21A8F00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40E07902-E600-48F5-A749-60A11957C1BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBDBCA7-5DA8-45AC-AE1F-F9C908B137E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BA744B-CB47-49CF-9F0F-BB37B9FB079F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f20_18RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D239D7-F44F-40FF-A030-E736D6C8B788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484CFCE-5885-43A6-ADE7-CE022250CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40E07902-E600-48F5-A749-60A11957C1BB}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{8658A11B-3DB0-455C-B01E-02B4F75BCD1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BA744B-CB47-49CF-9F0F-BB37B9FB079F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019E441D-F035-4414-A6BB-9D6C3A80F3EA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484CFCE-5885-43A6-ADE7-CE022250CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CA05A4-B6AB-47D6-9AD4-E89E65AE7A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{8658A11B-3DB0-455C-B01E-02B4F75BCD1A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{B41A0CA5-A181-4EF1-94B4-EE6968530478}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019E441D-F035-4414-A6BB-9D6C3A80F3EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D089D5-6DA0-4C12-B8A3-8CCA7F6E9DAF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
